--- a/後期_電気電子/演算増幅器とアクティブフィルタ/反転増幅回路.xlsx
+++ b/後期_電気電子/演算増幅器とアクティブフィルタ/反転増幅回路.xlsx
@@ -5,20 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terfno/Documents/git/report/__実験実習_後期/電気電子/演算増幅器とアクティブフィルタ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terfno/Documents/git/2018_report/後期_電気電子/演算増幅器とアクティブフィルタ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B23BC9-996A-EC48-A7B2-F206EA686984}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F34D38F-4390-8D4D-BA8B-FAD93B86D728}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{CABA36F1-72C6-5144-B1D7-F4EE01C77B3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$2:$B$12</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$B$2:$B$12</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -153,10 +149,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en" altLang="ja-JP"/>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
               <a:t>inverting amplifier</a:t>
             </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -192,14 +192,14 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -208,9 +208,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:val>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$12</c:f>
               <c:numCache>
@@ -226,13 +280,13 @@
                   <c:v>6.01</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.01</c:v>
+                  <c:v>4.01</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.1000000000000001</c:v>
+                  <c:v>1.1000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>-2.1</c:v>
@@ -251,11 +305,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C570-404F-B0A1-F771EB1DA3EE}"/>
+              <c16:uniqueId val="{00000000-AEA6-8F4E-8A00-F3B2D2CF53E5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -267,17 +321,30 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1612760336"/>
-        <c:axId val="1613294768"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1612760336"/>
+        <c:axId val="601732368"/>
+        <c:axId val="601733184"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="601732368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -347,8 +414,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -375,15 +442,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1613294768"/>
+        <c:crossAx val="601733184"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="1613294768"/>
+        <c:axId val="601733184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -424,11 +488,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>output</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
-                  <a:t> voltage [v]</a:t>
+                  <a:t>output voltage [v]</a:t>
                 </a:r>
                 <a:endParaRPr lang="ja-JP" altLang="en-US"/>
               </a:p>
@@ -469,8 +529,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -494,9 +560,9 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1612760336"/>
+        <c:crossAx val="601732368"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -508,6 +574,13 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -584,7 +657,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -611,8 +684,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -692,11 +765,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -707,11 +775,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -723,7 +786,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -743,9 +806,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -758,10 +818,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -801,22 +861,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -921,8 +982,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1054,19 +1115,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1080,6 +1142,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1104,22 +1177,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>827186</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>190612</xdr:rowOff>
+      <xdr:colOff>501257</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>22028</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>622637</xdr:colOff>
+      <xdr:colOff>296708</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>90361</xdr:rowOff>
+      <xdr:rowOff>180272</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="グラフ 6">
+        <xdr:cNvPr id="3" name="グラフ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5ABD72D-4CEE-1546-A963-919B70C4F7E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{931A1DE0-6E26-FA41-85EA-4EC87F9B9C03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1440,7 +1513,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="A2" sqref="A1:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1511,7 +1584,7 @@
         <v>-4</v>
       </c>
       <c r="B5">
-        <v>-4.01</v>
+        <v>4.01</v>
       </c>
       <c r="C5">
         <v>2.1</v>
@@ -1525,7 +1598,7 @@
         <v>-2</v>
       </c>
       <c r="B6">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>2.1</v>
@@ -1539,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>-1.1000000000000001</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="C7">
         <v>2</v>
